--- a/Simulator Layout.xlsx
+++ b/Simulator Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenneth.AD\ShareFile\Personal Folders\GitHub\ExcelSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD439C-9A47-4556-8B51-AEC6873ED944}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883CD1A-7739-4C40-A73B-4E235C74105F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulator" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -288,13 +288,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -304,13 +304,53 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -322,8 +362,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -332,22 +374,96 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -355,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,13 +499,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -406,37 +515,81 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2797,7 +2950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2817,116 +2972,126 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="26"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="28"/>
+      <c r="G3" s="38"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="31">
+      <c r="E5" s="25">
         <v>434</v>
       </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="31"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="29" t="str">
+      <c r="B10" s="45"/>
+      <c r="C10" s="23" t="str">
         <f>IF(ISERROR(IF(#REF!&lt;30,"WARNING - Low Sample Size. Please re-consider your data segments using the checkboxes above","")),"",IF(#REF!&lt;30,"WARNING- Low Sample Size. Please re-consider your data segments using the checkboxes above",""))</f>
         <v/>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2941,13 +3106,13 @@
       <c r="F12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -2962,13 +3127,13 @@
       <c r="F13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -2983,13 +3148,13 @@
       <c r="F14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3004,13 +3169,13 @@
       <c r="F15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3025,13 +3190,13 @@
       <c r="F16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3046,13 +3211,13 @@
       <c r="F17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3067,13 +3232,13 @@
       <c r="F18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3088,13 +3253,13 @@
       <c r="F19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -3109,13 +3274,13 @@
       <c r="F20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3130,66 +3295,66 @@
       <c r="F21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="33">
         <v>0</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="33">
         <v>0</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="33">
         <v>0</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="33">
         <v>0</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="12"/>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="22" t="str">
         <f>IF(ISERROR(IF(#REF!&lt;30,"WARNING - Low Sample Size. Please re-consider your data segments using the checkboxes above","")),"",IF(#REF!&lt;30,"WARNING- Low Sample Size. Please re-consider your data segments using the checkboxes above",""))</f>
         <v/>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Simulator Layout.xlsx
+++ b/Simulator Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenneth.AD\ShareFile\Personal Folders\GitHub\ExcelSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sawtoothsoftware-my.sharepoint.com/personal/kenneth_sawtoothsoftware_com/Documents/GitHub/ExcelSimulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883CD1A-7739-4C40-A73B-4E235C74105F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A883CD1A-7739-4C40-A73B-4E235C74105F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F3D2CEE-1971-45F3-A13B-E84900BF1D1F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulator" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="AorticAttributeLabels9">'[1]Aortic Labels'!$D$30:$D$34</definedName>
     <definedName name="AorticRespondentInclude">'[1]Aortic Utilities'!$AM$2:$AM$205</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +38,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -530,15 +533,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -562,9 +556,6 @@
     <xf numFmtId="9" fontId="8" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -590,6 +581,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2951,7 +2954,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2972,27 +2975,27 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="36"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="37"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="34"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3003,64 +3006,64 @@
         <v>12</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="25">
+      <c r="E5" s="43">
         <v>434</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="20"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="23" t="str">
         <f>IF(ISERROR(IF(#REF!&lt;30,"WARNING - Low Sample Size. Please re-consider your data segments using the checkboxes above","")),"",IF(#REF!&lt;30,"WARNING- Low Sample Size. Please re-consider your data segments using the checkboxes above",""))</f>
         <v/>
@@ -3068,7 +3071,7 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
@@ -3086,12 +3089,12 @@
       <c r="F11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3106,13 +3109,13 @@
       <c r="F12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3127,13 +3130,13 @@
       <c r="F13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -3148,13 +3151,13 @@
       <c r="F14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3169,13 +3172,13 @@
       <c r="F15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3190,13 +3193,13 @@
       <c r="F16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3211,13 +3214,13 @@
       <c r="F17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3232,13 +3235,13 @@
       <c r="F18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3253,13 +3256,13 @@
       <c r="F19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -3274,13 +3277,13 @@
       <c r="F20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3295,7 +3298,7 @@
       <c r="F21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="12"/>
@@ -3314,27 +3317,27 @@
       <c r="F22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="30">
         <v>0</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="30">
         <v>0</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="30">
         <v>0</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="31">
         <v>0</v>
       </c>
     </row>
